--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.546484952736307</v>
+        <v>91.546484951959243</v>
       </c>
       <c r="C2">
-        <v>90.920686842544555</v>
+        <v>90.920686842540917</v>
       </c>
       <c r="D2">
-        <v>92.804181451338749</v>
+        <v>92.804181454215211</v>
       </c>
       <c r="E2">
-        <v>90.176730770098573</v>
+        <v>90.17673077217087</v>
       </c>
       <c r="F2">
-        <v>95.114649904729021</v>
+        <v>95.11464990842137</v>
       </c>
       <c r="G2">
-        <v>94.459571298418581</v>
+        <v>94.459571299405425</v>
       </c>
       <c r="H2">
-        <v>93.178575115476164</v>
+        <v>93.178575116772961</v>
       </c>
       <c r="I2">
-        <v>93.855680554842749</v>
+        <v>93.855680555464275</v>
       </c>
       <c r="J2">
-        <v>91.840163619071745</v>
+        <v>91.84016362129293</v>
       </c>
       <c r="K2">
-        <v>93.619626336615084</v>
+        <v>93.619626338928285</v>
       </c>
       <c r="L2">
-        <v>95.666715065335566</v>
+        <v>95.666715064613527</v>
       </c>
       <c r="M2">
-        <v>92.051768701636419</v>
+        <v>92.05176870105835</v>
       </c>
       <c r="N2">
-        <v>93.556534095248779</v>
+        <v>93.55653409544982</v>
       </c>
       <c r="O2">
-        <v>92.733216191121471</v>
+        <v>92.73321619510584</v>
       </c>
       <c r="P2">
-        <v>93.457292923709147</v>
+        <v>93.457292923457786</v>
       </c>
       <c r="Q2">
-        <v>95.468095021247734</v>
+        <v>95.468095022305761</v>
       </c>
       <c r="R2">
-        <v>93.298761151170126</v>
+        <v>93.298761155296816</v>
       </c>
       <c r="S2">
-        <v>89.917607273616056</v>
+        <v>89.917607270314917</v>
       </c>
       <c r="T2">
-        <v>93.057299209528438</v>
+        <v>93.057299208000941</v>
       </c>
       <c r="U2">
-        <v>92.062625634233513</v>
+        <v>92.062625639224578</v>
       </c>
       <c r="V2">
-        <v>95.279606036121095</v>
+        <v>95.279606038914409</v>
       </c>
       <c r="W2">
-        <v>94.640817301122269</v>
+        <v>94.640817302901112</v>
       </c>
       <c r="X2">
-        <v>92.686699738988153</v>
+        <v>92.686699739325093</v>
       </c>
       <c r="Y2">
-        <v>90.404048836512956</v>
+        <v>90.404048840573665</v>
       </c>
       <c r="Z2">
-        <v>92.12820971947734</v>
+        <v>92.128209724338134</v>
       </c>
       <c r="AA2">
-        <v>91.182488368141662</v>
+        <v>91.182488371773303</v>
       </c>
       <c r="AB2">
-        <v>90.56675489392147</v>
+        <v>90.566754900428947</v>
       </c>
       <c r="AC2">
-        <v>93.464412531920118</v>
+        <v>93.464412534972212</v>
       </c>
       <c r="AD2">
-        <v>89.529975818009859</v>
+        <v>89.529975825888741</v>
       </c>
       <c r="AE2">
-        <v>94.116316647845039</v>
+        <v>94.11631665145994</v>
       </c>
       <c r="AF2">
-        <v>93.111730573546907</v>
+        <v>93.111730576686526</v>
       </c>
       <c r="AG2">
-        <v>93.560343363093281</v>
+        <v>93.560343366561909</v>
       </c>
       <c r="AH2">
-        <v>93.176667846669375</v>
+        <v>93.17666784995923</v>
       </c>
       <c r="AI2">
-        <v>90.604803315733179</v>
+        <v>90.604803321421073</v>
       </c>
       <c r="AJ2">
-        <v>92.976149779939334</v>
+        <v>92.976149782736812</v>
       </c>
       <c r="AK2">
-        <v>93.951503214568362</v>
+        <v>93.951503217563612</v>
       </c>
       <c r="AL2">
-        <v>91.989066867930816</v>
+        <v>91.989066870762869</v>
       </c>
       <c r="AM2">
-        <v>92.746566077216954</v>
+        <v>92.746566079729874</v>
       </c>
       <c r="AN2">
-        <v>93.834676578615699</v>
+        <v>93.834676583843432</v>
       </c>
       <c r="AO2">
-        <v>92.380935548733135</v>
+        <v>92.380935550757457</v>
       </c>
       <c r="AP2">
-        <v>92.533854712889578</v>
+        <v>92.533854717584703</v>
       </c>
       <c r="AQ2">
-        <v>93.780604183584344</v>
+        <v>93.780604186449807</v>
       </c>
       <c r="AR2">
-        <v>90.193217494739173</v>
+        <v>90.193217496731307</v>
       </c>
       <c r="AS2">
-        <v>92.397728835358791</v>
+        <v>92.397728839505106</v>
       </c>
       <c r="AT2">
-        <v>90.029902552323549</v>
+        <v>90.029902556607126</v>
       </c>
       <c r="AU2">
-        <v>93.262547293476189</v>
+        <v>93.262547299114644</v>
       </c>
       <c r="AV2">
-        <v>93.183331154450443</v>
+        <v>93.183331159791678</v>
       </c>
       <c r="AW2">
-        <v>92.642247208341857</v>
+        <v>92.642247212920836</v>
       </c>
       <c r="AX2">
-        <v>90.376566970936295</v>
+        <v>90.376566976700659</v>
       </c>
       <c r="AY2">
-        <v>90.472318632065566</v>
+        <v>90.47231863666417</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>91.618271553783643</v>
+        <v>91.618271555979433</v>
       </c>
       <c r="C3">
-        <v>92.506513202200125</v>
+        <v>92.506513206316896</v>
       </c>
       <c r="D3">
-        <v>91.582421942681066</v>
+        <v>91.582421950193975</v>
       </c>
       <c r="E3">
-        <v>91.400217001680062</v>
+        <v>91.400217005607303</v>
       </c>
       <c r="F3">
-        <v>94.798559560620447</v>
+        <v>94.798559563816269</v>
       </c>
       <c r="G3">
-        <v>91.933910824570958</v>
+        <v>91.933910826602727</v>
       </c>
       <c r="H3">
-        <v>96.026184071078589</v>
+        <v>96.026184072949576</v>
       </c>
       <c r="I3">
-        <v>93.293008455947614</v>
+        <v>93.293008457619464</v>
       </c>
       <c r="J3">
-        <v>90.739859152025502</v>
+        <v>90.739859153265996</v>
       </c>
       <c r="K3">
-        <v>89.428346862640723</v>
+        <v>89.428346862792068</v>
       </c>
       <c r="L3">
-        <v>94.345016691864529</v>
+        <v>94.345016694157593</v>
       </c>
       <c r="M3">
-        <v>91.99326716791559</v>
+        <v>91.993316265308707</v>
       </c>
       <c r="N3">
-        <v>93.237519416364947</v>
+        <v>93.237519419263478</v>
       </c>
       <c r="O3">
-        <v>95.061798291136796</v>
+        <v>95.061798292730757</v>
       </c>
       <c r="P3">
-        <v>92.782476757584746</v>
+        <v>92.782476763915597</v>
       </c>
       <c r="Q3">
-        <v>93.939672958844412</v>
+        <v>93.939672959897919</v>
       </c>
       <c r="R3">
-        <v>96.472162490778487</v>
+        <v>96.472162493034546</v>
       </c>
       <c r="S3">
-        <v>91.046132624025475</v>
+        <v>91.04613262483187</v>
       </c>
       <c r="T3">
-        <v>93.506291328605641</v>
+        <v>93.506291331577174</v>
       </c>
       <c r="U3">
-        <v>91.120011825106303</v>
+        <v>91.120011828049627</v>
       </c>
       <c r="V3">
-        <v>94.236892552150749</v>
+        <v>94.236892554097167</v>
       </c>
       <c r="W3">
-        <v>93.830431348402414</v>
+        <v>93.830431350542213</v>
       </c>
       <c r="X3">
-        <v>93.947241514123377</v>
+        <v>93.947241516629632</v>
       </c>
       <c r="Y3">
-        <v>88.484772773010107</v>
+        <v>88.484772779023018</v>
       </c>
       <c r="Z3">
-        <v>89.743206277825976</v>
+        <v>89.743206283208394</v>
       </c>
       <c r="AA3">
-        <v>91.421254412998834</v>
+        <v>91.421254416951143</v>
       </c>
       <c r="AB3">
-        <v>90.738197225675009</v>
+        <v>90.738197231212652</v>
       </c>
       <c r="AC3">
-        <v>93.085799988202467</v>
+        <v>93.08579999120154</v>
       </c>
       <c r="AD3">
-        <v>90.491472013131627</v>
+        <v>90.491472017392326</v>
       </c>
       <c r="AE3">
-        <v>93.223364026860949</v>
+        <v>93.223364028722784</v>
       </c>
       <c r="AF3">
-        <v>92.658947840854893</v>
+        <v>92.658947844915815</v>
       </c>
       <c r="AG3">
-        <v>93.234957971092427</v>
+        <v>93.234957973486786</v>
       </c>
       <c r="AH3">
-        <v>91.46556292813159</v>
+        <v>91.465562931015924</v>
       </c>
       <c r="AI3">
-        <v>86.309904264196334</v>
+        <v>86.30990426996064</v>
       </c>
       <c r="AJ3">
-        <v>93.473763773017666</v>
+        <v>93.473763774744498</v>
       </c>
       <c r="AK3">
-        <v>93.320809282186033</v>
+        <v>93.320809287264353</v>
       </c>
       <c r="AL3">
-        <v>91.738348366848641</v>
+        <v>91.738348371896535</v>
       </c>
       <c r="AM3">
-        <v>91.340887959801208</v>
+        <v>91.340887965378144</v>
       </c>
       <c r="AN3">
-        <v>94.659485390737473</v>
+        <v>94.659485393297089</v>
       </c>
       <c r="AO3">
-        <v>92.454710479921999</v>
+        <v>92.454710489627587</v>
       </c>
       <c r="AP3">
-        <v>94.125489845068643</v>
+        <v>94.125489848649877</v>
       </c>
       <c r="AQ3">
-        <v>94.266464951137806</v>
+        <v>94.266464956417536</v>
       </c>
       <c r="AR3">
-        <v>90.445338712943538</v>
+        <v>90.445338715768187</v>
       </c>
       <c r="AS3">
-        <v>94.504177866781689</v>
+        <v>94.5041778696378</v>
       </c>
       <c r="AT3">
-        <v>89.900251341550884</v>
+        <v>89.900251348258877</v>
       </c>
       <c r="AU3">
-        <v>94.222003646626433</v>
+        <v>94.22200364681197</v>
       </c>
       <c r="AV3">
-        <v>93.977173856500016</v>
+        <v>93.977173860715411</v>
       </c>
       <c r="AW3">
-        <v>93.205904449069536</v>
+        <v>93.205904453268232</v>
       </c>
       <c r="AX3">
-        <v>92.181433186732704</v>
+        <v>92.181433190512749</v>
       </c>
       <c r="AY3">
-        <v>88.729855400194921</v>
+        <v>88.729855406977407</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>91.546484951959243</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>90.920686842540917</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>92.804181454215211</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>90.17673077217087</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>95.11464990842137</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>94.459571299405425</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>93.178575116772961</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>93.855680555464275</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>91.84016362129293</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>93.619626338928285</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>95.666715064613527</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>92.05176870105835</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>93.55653409544982</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>92.73321619510584</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>93.457292923457786</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>95.468095022305761</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>93.298761155296816</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>89.917607270314917</v>
+        <v>91.230732868578968</v>
       </c>
       <c r="T2">
         <v>93.057299208000941</v>
@@ -588,55 +477,55 @@
         <v>92.128209724338134</v>
       </c>
       <c r="AA2">
-        <v>91.182488371773303</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>90.566754900428947</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>93.464412534972212</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>89.529975825888741</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>94.11631665145994</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>93.111730576686526</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>93.560343366561909</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>93.17666784995923</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>90.604803321421073</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>92.976149782736812</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>93.951503217563612</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>91.989066870762869</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>92.746566079729874</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>93.834676583843432</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>92.380935550757457</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>92.533854717584703</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>93.780604186449807</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>90.193217496731307</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>91.618271555979433</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>92.506513206316896</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>91.582421950193975</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>91.400217005607303</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>94.798559563816269</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>91.933910826602727</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>96.026184072949576</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>93.293008457619464</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>90.739859153265996</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>89.428346862792068</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>94.345016694157593</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>91.993316265308707</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>93.237519419263478</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>95.061798292730757</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>92.782476763915597</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>93.939672959897919</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>96.472162493034546</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>91.04613262483187</v>
@@ -743,55 +629,55 @@
         <v>89.743206283208394</v>
       </c>
       <c r="AA3">
-        <v>91.421254416951143</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>90.738197231212652</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>93.08579999120154</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>90.491472017392326</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>93.223364028722784</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>92.658947844915815</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>93.234957973486786</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>91.465562931015924</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>86.30990426996064</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>93.473763774744498</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>93.320809287264353</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>91.738348371896535</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>91.340887965378144</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>94.659485393297089</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>92.454710489627587</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>94.125489848649877</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>94.266464956417536</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>90.445338715768187</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.546484952736307</v>
+        <v>92.73321619510584</v>
       </c>
       <c r="C2">
-        <v>91.573599594478551</v>
+        <v>93.298761155296816</v>
       </c>
       <c r="D2">
-        <v>92.804181451338749</v>
+        <v>93.834676583843432</v>
       </c>
       <c r="E2">
-        <v>90.176730770098573</v>
+        <v>93.780604186449807</v>
       </c>
       <c r="F2">
         <v>95.114649904729021</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>91.618271553783643</v>
+        <v>93.79004036183251</v>
       </c>
       <c r="C3">
-        <v>92.506513202200125</v>
+        <v>96.472162493034546</v>
       </c>
       <c r="D3">
-        <v>91.582421942681066</v>
+        <v>94.534439327533661</v>
       </c>
       <c r="E3">
-        <v>91.400217001680062</v>
+        <v>93.839416201937325</v>
       </c>
       <c r="F3">
         <v>94.798559560620447</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91.546484952736307</v>
+        <v>93.823255097523997</v>
       </c>
       <c r="C2">
-        <v>91.573599594478551</v>
+        <v>92.73321619510584</v>
       </c>
       <c r="D2">
-        <v>92.804181451338749</v>
+        <v>92.746566079729874</v>
       </c>
       <c r="E2">
-        <v>90.176730770098573</v>
+        <v>93.834676583843432</v>
       </c>
       <c r="F2">
         <v>95.114649904729021</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>91.618271553783643</v>
+        <v>93.237519419263478</v>
       </c>
       <c r="C3">
-        <v>92.506513202200125</v>
+        <v>93.79004036183251</v>
       </c>
       <c r="D3">
-        <v>91.582421942681066</v>
+        <v>91.340887965378144</v>
       </c>
       <c r="E3">
-        <v>89.830670659485023</v>
+        <v>94.534439327533661</v>
       </c>
       <c r="F3">
         <v>94.798559560620447</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_SEE_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>91.546484951959243</v>
+      </c>
+      <c r="C2">
+        <v>91.573599595990657</v>
+      </c>
+      <c r="D2">
+        <v>92.804181454215211</v>
+      </c>
+      <c r="E2">
+        <v>90.17673077217087</v>
+      </c>
+      <c r="F2">
+        <v>95.11464990842137</v>
+      </c>
+      <c r="G2">
+        <v>93.792542749878535</v>
+      </c>
+      <c r="H2">
+        <v>93.178575116772961</v>
+      </c>
+      <c r="I2">
+        <v>93.154035071516262</v>
+      </c>
+      <c r="J2">
+        <v>91.84016362129293</v>
+      </c>
+      <c r="K2">
+        <v>93.619626338928285</v>
+      </c>
+      <c r="L2">
+        <v>95.801386435486464</v>
+      </c>
+      <c r="M2">
+        <v>90.702499387353996</v>
+      </c>
+      <c r="N2">
         <v>93.823255097523997</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>92.73321619510584</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>93.258967143825117</v>
+      </c>
+      <c r="Q2">
+        <v>95.468095022305761</v>
+      </c>
+      <c r="R2">
+        <v>93.298761155296816</v>
+      </c>
+      <c r="T2">
+        <v>93.6780989004519</v>
+      </c>
+      <c r="U2">
+        <v>92.062625639224578</v>
+      </c>
+      <c r="V2">
+        <v>94.715250364240632</v>
+      </c>
+      <c r="W2">
+        <v>94.640817302901112</v>
+      </c>
+      <c r="X2">
+        <v>92.686699739325093</v>
+      </c>
+      <c r="Y2">
+        <v>90.404048840573665</v>
+      </c>
+      <c r="Z2">
+        <v>92.128209724338134</v>
+      </c>
+      <c r="AA2">
+        <v>91.182488371773303</v>
+      </c>
+      <c r="AB2">
+        <v>90.566754900428947</v>
+      </c>
+      <c r="AC2">
+        <v>93.464412534972212</v>
+      </c>
+      <c r="AD2">
+        <v>89.529975825888741</v>
+      </c>
+      <c r="AE2">
+        <v>94.11631665145994</v>
+      </c>
+      <c r="AF2">
+        <v>93.111730576686526</v>
+      </c>
+      <c r="AG2">
+        <v>93.560343366561909</v>
+      </c>
+      <c r="AH2">
+        <v>93.17666784995923</v>
+      </c>
+      <c r="AI2">
+        <v>90.604803321421073</v>
+      </c>
+      <c r="AJ2">
+        <v>92.976149782736812</v>
+      </c>
+      <c r="AK2">
+        <v>93.951503217563612</v>
+      </c>
+      <c r="AL2">
+        <v>91.989066870762869</v>
+      </c>
+      <c r="AM2">
         <v>92.746566079729874</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>93.834676583843432</v>
       </c>
-      <c r="F2">
-        <v>95.114649904729021</v>
-      </c>
-      <c r="G2">
-        <v>93.792542749928955</v>
-      </c>
-      <c r="H2">
-        <v>93.178575115476164</v>
-      </c>
-      <c r="I2">
-        <v>93.154035068418949</v>
-      </c>
-      <c r="J2">
-        <v>91.840163619071745</v>
-      </c>
-      <c r="K2">
-        <v>93.619626336615084</v>
-      </c>
-      <c r="L2">
-        <v>95.801386433671937</v>
-      </c>
-      <c r="M2">
-        <v>90.702499389370075</v>
-      </c>
-      <c r="N2">
-        <v>93.823255096161901</v>
-      </c>
-      <c r="O2">
-        <v>92.733216191121471</v>
-      </c>
-      <c r="P2">
-        <v>93.258967144371155</v>
-      </c>
-      <c r="Q2">
-        <v>95.468095021247734</v>
-      </c>
-      <c r="R2">
-        <v>93.298761151170126</v>
-      </c>
-      <c r="T2">
-        <v>93.678098899092603</v>
-      </c>
-      <c r="U2">
-        <v>92.062625634233513</v>
-      </c>
-      <c r="V2">
-        <v>94.715250359839516</v>
-      </c>
-      <c r="W2">
-        <v>94.640817301122269</v>
-      </c>
-      <c r="X2">
-        <v>92.686699738988153</v>
-      </c>
-      <c r="Y2">
-        <v>90.404048836512956</v>
-      </c>
-      <c r="Z2">
-        <v>92.12820971947734</v>
-      </c>
-      <c r="AA2">
-        <v>91.182488368141662</v>
-      </c>
-      <c r="AB2">
-        <v>90.56675489392147</v>
-      </c>
-      <c r="AC2">
-        <v>93.464412531920118</v>
-      </c>
-      <c r="AD2">
-        <v>89.529975818009859</v>
-      </c>
-      <c r="AE2">
-        <v>94.116316647845039</v>
-      </c>
-      <c r="AF2">
-        <v>93.111730573546907</v>
-      </c>
-      <c r="AG2">
-        <v>93.560343363093281</v>
-      </c>
-      <c r="AH2">
-        <v>93.176667846669375</v>
-      </c>
-      <c r="AI2">
-        <v>90.604803315733179</v>
-      </c>
-      <c r="AJ2">
-        <v>92.976149779939334</v>
-      </c>
-      <c r="AK2">
-        <v>93.951503214568362</v>
-      </c>
-      <c r="AL2">
-        <v>91.989066867930816</v>
-      </c>
-      <c r="AM2">
-        <v>92.746566077216954</v>
-      </c>
-      <c r="AN2">
-        <v>93.834676578615699</v>
-      </c>
       <c r="AO2">
-        <v>92.380935548733135</v>
+        <v>92.380935550757457</v>
       </c>
       <c r="AP2">
-        <v>92.097815550285716</v>
+        <v>92.097815553890968</v>
       </c>
       <c r="AQ2">
-        <v>93.780604183584344</v>
+        <v>93.780604186449807</v>
       </c>
       <c r="AR2">
-        <v>90.193217494739173</v>
+        <v>90.193217496731307</v>
       </c>
       <c r="AS2">
-        <v>92.397728835358791</v>
+        <v>92.397728839505106</v>
       </c>
       <c r="AT2">
-        <v>90.029902552323549</v>
+        <v>90.029902556607126</v>
       </c>
       <c r="AU2">
-        <v>94.338502938529402</v>
+        <v>94.338502941206954</v>
       </c>
       <c r="AV2">
-        <v>93.183331154450443</v>
+        <v>93.183331159791678</v>
       </c>
       <c r="AW2">
-        <v>92.642247208341857</v>
+        <v>92.642247212920836</v>
       </c>
       <c r="AX2">
-        <v>90.376566970936295</v>
+        <v>90.376566976700659</v>
       </c>
       <c r="AY2">
-        <v>90.472318632065566</v>
+        <v>90.47231863666417</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>91.618271555979433</v>
+      </c>
+      <c r="C3">
+        <v>92.506513206316896</v>
+      </c>
+      <c r="D3">
+        <v>91.582421950193975</v>
+      </c>
+      <c r="E3">
+        <v>89.830670664039459</v>
+      </c>
+      <c r="F3">
+        <v>94.798559563816269</v>
+      </c>
+      <c r="G3">
+        <v>91.933910826602727</v>
+      </c>
+      <c r="H3">
+        <v>96.026184072949576</v>
+      </c>
+      <c r="I3">
+        <v>93.293008457619464</v>
+      </c>
+      <c r="J3">
+        <v>90.739859153265996</v>
+      </c>
+      <c r="K3">
+        <v>89.775393836967368</v>
+      </c>
+      <c r="L3">
+        <v>94.345016694157593</v>
+      </c>
+      <c r="M3">
+        <v>93.039051653905176</v>
+      </c>
+      <c r="N3">
         <v>93.237519419263478</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>93.79004036183251</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>92.782476763915597</v>
+      </c>
+      <c r="Q3">
+        <v>93.939672959897919</v>
+      </c>
+      <c r="R3">
+        <v>96.472162493034546</v>
+      </c>
+      <c r="S3">
+        <v>91.04613262483187</v>
+      </c>
+      <c r="T3">
+        <v>93.506291331577174</v>
+      </c>
+      <c r="U3">
+        <v>91.120011828049627</v>
+      </c>
+      <c r="V3">
+        <v>93.894016215826667</v>
+      </c>
+      <c r="W3">
+        <v>93.830431350542213</v>
+      </c>
+      <c r="X3">
+        <v>93.947241516629632</v>
+      </c>
+      <c r="Y3">
+        <v>88.484772779023018</v>
+      </c>
+      <c r="Z3">
+        <v>89.743206283208394</v>
+      </c>
+      <c r="AA3">
+        <v>91.421254416951143</v>
+      </c>
+      <c r="AB3">
+        <v>90.738197231212652</v>
+      </c>
+      <c r="AC3">
+        <v>93.08579999120154</v>
+      </c>
+      <c r="AD3">
+        <v>90.491472017392326</v>
+      </c>
+      <c r="AE3">
+        <v>93.223364028722784</v>
+      </c>
+      <c r="AF3">
+        <v>92.658947844915815</v>
+      </c>
+      <c r="AG3">
+        <v>93.234957973486786</v>
+      </c>
+      <c r="AH3">
+        <v>91.465562931015924</v>
+      </c>
+      <c r="AI3">
+        <v>91.541346995407849</v>
+      </c>
+      <c r="AJ3">
+        <v>93.473763774744498</v>
+      </c>
+      <c r="AK3">
+        <v>93.320809287264353</v>
+      </c>
+      <c r="AL3">
+        <v>91.738348371896535</v>
+      </c>
+      <c r="AM3">
         <v>91.340887965378144</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>94.534439327533661</v>
       </c>
-      <c r="F3">
-        <v>94.798559560620447</v>
-      </c>
-      <c r="G3">
-        <v>91.933910824570958</v>
-      </c>
-      <c r="H3">
-        <v>96.026184071078589</v>
-      </c>
-      <c r="I3">
-        <v>93.293008455947614</v>
-      </c>
-      <c r="J3">
-        <v>90.739859152025502</v>
-      </c>
-      <c r="K3">
-        <v>89.775393834900186</v>
-      </c>
-      <c r="L3">
-        <v>94.345016691864529</v>
-      </c>
-      <c r="M3">
-        <v>93.03901877954587</v>
-      </c>
-      <c r="N3">
-        <v>93.237519416364947</v>
-      </c>
-      <c r="O3">
-        <v>93.790040359159562</v>
-      </c>
-      <c r="P3">
-        <v>92.782476757584746</v>
-      </c>
-      <c r="Q3">
-        <v>93.939672958844412</v>
-      </c>
-      <c r="R3">
-        <v>96.472162490778487</v>
-      </c>
-      <c r="S3">
-        <v>91.046132624025475</v>
-      </c>
-      <c r="T3">
-        <v>93.506291328605641</v>
-      </c>
-      <c r="U3">
-        <v>91.120011825106303</v>
-      </c>
-      <c r="V3">
-        <v>93.894016211547424</v>
-      </c>
-      <c r="W3">
-        <v>93.830431348402414</v>
-      </c>
-      <c r="X3">
-        <v>93.947241514123377</v>
-      </c>
-      <c r="Y3">
-        <v>88.484772773010107</v>
-      </c>
-      <c r="Z3">
-        <v>89.743206277825976</v>
-      </c>
-      <c r="AA3">
-        <v>91.421254412998834</v>
-      </c>
-      <c r="AB3">
-        <v>90.738197225675009</v>
-      </c>
-      <c r="AC3">
-        <v>93.085799988202467</v>
-      </c>
-      <c r="AD3">
-        <v>90.491472013131627</v>
-      </c>
-      <c r="AE3">
-        <v>93.223364026860949</v>
-      </c>
-      <c r="AF3">
-        <v>92.658947840854893</v>
-      </c>
-      <c r="AG3">
-        <v>93.234957971092427</v>
-      </c>
-      <c r="AH3">
-        <v>91.46556292813159</v>
-      </c>
-      <c r="AI3">
-        <v>91.541346989316963</v>
-      </c>
-      <c r="AJ3">
-        <v>93.473763773017666</v>
-      </c>
-      <c r="AK3">
-        <v>93.320809282186033</v>
-      </c>
-      <c r="AL3">
-        <v>91.738348366848641</v>
-      </c>
-      <c r="AM3">
-        <v>91.340887959801208</v>
-      </c>
-      <c r="AN3">
-        <v>94.534439324164126</v>
-      </c>
       <c r="AO3">
-        <v>92.454710479921999</v>
+        <v>92.454710489627587</v>
       </c>
       <c r="AP3">
-        <v>94.125489845068643</v>
+        <v>94.125489848649877</v>
       </c>
       <c r="AQ3">
-        <v>93.839416200945365</v>
+        <v>93.839416201937325</v>
       </c>
       <c r="AR3">
-        <v>90.445338712943538</v>
+        <v>90.445338715768187</v>
       </c>
       <c r="AS3">
-        <v>94.504177866781689</v>
+        <v>94.5041778696378</v>
       </c>
       <c r="AT3">
-        <v>89.900251341550884</v>
+        <v>89.900251348258877</v>
       </c>
       <c r="AU3">
-        <v>94.102839433152752</v>
+        <v>94.102839429654381</v>
       </c>
       <c r="AV3">
-        <v>93.977173856500016</v>
+        <v>93.977173860715411</v>
       </c>
       <c r="AW3">
-        <v>93.205904449069536</v>
+        <v>93.205904453268232</v>
       </c>
       <c r="AX3">
-        <v>92.181433186732704</v>
+        <v>92.181433190512749</v>
       </c>
       <c r="AY3">
-        <v>88.729855400194921</v>
+        <v>88.729855406977407</v>
       </c>
     </row>
   </sheetData>
